--- a/result_mcc.xlsx
+++ b/result_mcc.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,1281 +451,621 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Парковка Моремолл Сочи[AO MOREMALL]Сочи, Краснодарский край, Сочи, микрорайон Донская, улица Новая Заря, 7</t>
+          <t>Dutty free Пулково[Jsc lenrianta]Санкт-Петербург, Пулково аэропорт</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Сочи, Краснодарский край, Сочи, микрорайон Донская, улица Новая Заря, 7</t>
+          <t>Санкт-Петербург, Пулково аэропорт</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.11.2024</t>
+          <t>31.05.2024</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Охта парк - оплата парковки онлайнQR код на сайт с оплатой, расположенный на парковочном талоне</t>
+          <t>Duty Free 717аэропорт Екатеринбург (Кольцово) имени А.Н. Демидова, площадь Екатеринбург аэропорт "Кольцово"</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>QR код на сайт с оплатой, расположенный на парковочном талоне</t>
+          <t>аэропорт Екатеринбург (Кольцово) имени А.Н. Демидова, площадь Екатеринбург аэропорт "Кольцово"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>01.11.2024</t>
+          <t>31.05.2024</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Платная парковка за ЦТиР "Мир"[AVTOMATICHESKAJA KASSA]Уфа, проспект Октября, 4/1а</t>
+          <t>Duty free Пулково[JSC LENRIANTA SH PULKOVSK SAINT PETERSB RUS]Санкт-Петербург, Аэропорт Пулково</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Уфа, проспект Октября, 4/1а</t>
+          <t>Санкт-Петербург, Аэропорт Пулково</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>30.10.2024</t>
+          <t>25.05.2024</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Парковка ТЦ Сказка[MD.*SKAZKA Parking]Москва, Терминал на парковке</t>
+          <t>Duty Free в аэропорту Дубая, терминал 2, зона вылета[DUBAI DUTY FREE]ОАЭ, Дубай/Dubai, Аэропорт DXB, терминал 2, зона вылета</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Москва, Терминал на парковке</t>
+          <t>ОАЭ, Дубай/Dubai, Аэропорт DXB, терминал 2, зона вылета</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19.10.2024</t>
+          <t>02.05.2024</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ГСК 201, Челябинск[PGSK 201 LENINA Av 2]Челябинск, проспект Пр. ЛЕНИНА 27</t>
+          <t>Duty Free (ООО "Апсны Дью Ти")Сочи (Адлер), КПП Псоу</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Челябинск, проспект Пр. ЛЕНИНА 27</t>
+          <t>Сочи (Адлер), КПП Псоу</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>09.10.2024</t>
+          <t>03.04.2024</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Шереметьево паркинг - Открытая парковка P12[602 Sheremetevo Parking]Московская обл., городской округ Химки, паркомат на парковке</t>
+          <t>Duty Free Шереметьево[TREVEL RITEJLSHEREMETE Khimki RUS]аэропорт Шереметьево имени А.С. Пушкина, Аэропорт Шереметьево</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Московская обл., городской округ Химки, паркомат на парковке</t>
+          <t>аэропорт Шереметьево имени А.С. Пушкина, Аэропорт Шереметьево</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>07.10.2024</t>
+          <t>13.02.2024</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Парковка под Миллениумом[Parkovka]г. Казань, ул. Подлужная 67/2</t>
+          <t>DutyFree[MAGAZIN "DUTY FREE" CANDRYPSH RUS]Сочи (Адлер), ул. КПП Псоу</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>г. Казань, ул. Подлужная 67/2</t>
+          <t>Сочи (Адлер), ул. КПП Псоу</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>02.10.2024</t>
+          <t>04.12.2023</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Парковка МоремоллСочи, ул. Новая Заря, 7, ТРЦ Моремолл</t>
+          <t>Duty Free Sabiha Gökçen Airport Istanbul[URART GUMRUKSUZ MAGA]Турция, аэропорт Сабиха Гёкчен, магазины Duty Free</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Сочи, ул. Новая Заря, 7, ТРЦ Моремолл</t>
+          <t>Турция, аэропорт Сабиха Гёкчен, магазины Duty Free</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>26.09.2024</t>
+          <t>22.11.2023</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Горпарковки пополнение[Kazanski parking]приложение Горпарковки</t>
+          <t>Дьюти в аэропорту Еревана[ADF SHOPS HUDSON 1]Армения, аэропорт Звартноц, 592X+QPJ, Yerevan, Armenia</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>приложение Горпарковки</t>
+          <t>Армения, аэропорт Звартноц, 592X+QPJ, Yerevan, Armenia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>18.09.2024</t>
+          <t>10.09.2023</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Парковка ЖД Вокзал СочиСочи, ул. Горького</t>
+          <t>Duty Free МАПП "Матвеев Курган"[OOO VARIANT 2]Ростовская область, Матвеево-Курганский район,, с. Авило-Успенка, МАПП "Матвеев Курган" лит.А</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Сочи, ул. Горького</t>
+          <t>Ростовская область, Матвеево-Курганский район,, с. Авило-Успенка, МАПП "Матвеев Курган" лит.А</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13.09.2024</t>
+          <t>09.05.2022</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Парковки России (пополнение счёта на сайте в личном кабинете через ЮКассу)[YM*AMPP]https://lk.parking.mos.ru/ru/cabinet/refill</t>
+          <t>OB shop[DUTY FREE OB ALTANBULAG MN]Монголия, поселок Алтанбулаг, ул. КПП автомобильный</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://lk.parking.mos.ru/ru/cabinet/refill</t>
+          <t>Монголия, поселок Алтанбулаг, ул. КПП автомобильный</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>04.09.2024</t>
+          <t>07.01.2022</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Парковки России[YM*AMPP]приложение Парковки России, Андроид, Юкасса</t>
+          <t>Duty Free Group (ООО "Дьюти Фри Групп")Сочи (Адлер), КПП Псоу</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>приложение Парковки России, Андроид, Юкасса</t>
+          <t>Сочи (Адлер), КПП Псоу</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>04.09.2024</t>
+          <t>09.11.2021</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Парковка МагнитСочи, Виноградный переулок 2</t>
+          <t>Duty free Ираклеон[DUTY FREE KRAT AEROLIMENA HRAKLEIO GRC]Ираклион, Крит, Греция, Аэропорт</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Сочи, Виноградный переулок 2</t>
+          <t>Ираклион, Крит, Греция, Аэропорт</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>01.09.2024</t>
+          <t>01.10.2021</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Подземная парковка ТЦ Сан СитиСочи, ул. Северная 6</t>
+          <t>Duty free Брусничное[MBT NUJYAMAA MAPP BRUSN SAJ BRUSNICHNOE RUS]Брусничное, Граница на выезд в Финляндию, Ленинградская область</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Сочи, ул. Северная 6</t>
+          <t>Брусничное, Граница на выезд в Финляндию, Ленинградская область</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26.08.2024</t>
+          <t>01.10.2021</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Шлагбаум Белый РынокЧелябинск, ул. Тернопольская</t>
+          <t>JR/Duty Free[jr- heinemann Duty free]Израиль, Rashut Sdot HaTeufa Blvd., Ben-Gurion Airport</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Челябинск, ул. Тернопольская</t>
+          <t>Израиль, Rashut Sdot HaTeufa Blvd., Ben-Gurion Airport</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>05.08.2024</t>
+          <t>04.03.2020</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>паркинг Альфа-Строй alfastroyspb.ru[alfastroyspb.ru]alfastroyspb.ru</t>
+          <t>Cyprus Airports Xpress[CYPRUSAIRPORTSXPRESS]Кипр, Пафос/Paphos, Paphos Airport</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>alfastroyspb.ru</t>
+          <t>Кипр, Пафос/Paphos, Paphos Airport</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>08.07.2024</t>
+          <t>23.02.2020</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>парковка в ТРЦ "Афимолл Сити"[BELLGEJT]Москва, Пресненская наб., 2, ТРЦ "Афимолл Сити"</t>
+          <t>Duty free SHILLA[THE SHILLA DUTY FREE_INCH]Сеул, Аэропорт Инчхон</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Москва, Пресненская наб., 2, ТРЦ "Афимолл Сити"</t>
+          <t>Сеул, Аэропорт Инчхон</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>30.06.2024</t>
+          <t>06.11.2019</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Стоянка возле парков Раздолье и Малевича[STOJANKA]МО, Одинцово, Парк Раздолье</t>
+          <t>Duty Free Prague Дьюти Фри Аэропорт Прага, терминал 1[93095 PRAGUE WALKTHROUGH]Чехия, Прага, Aviatická, 161 08 Praha 6, Czechia</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>МО, Одинцово, Парк Раздолье</t>
+          <t>Чехия, Прага, Aviatická, 161 08 Praha 6, Czechia</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>17.05.2024</t>
+          <t>25.09.2019</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Парковка в аэропорту Рощино (г. Тюмень)[AEROPORT ROSHHINO]Тюмень, улица Сергея Ильюшина</t>
+          <t>МК Групп (mk-doors.ru)[MK GRUPP]Санкт-Петербург, ул. терминал у замерщика</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Тюмень, улица Сергея Ильюшина</t>
+          <t>Санкт-Петербург, ул. терминал у замерщика</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>16.05.2024</t>
+          <t>27.07.2019</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Спецстоянка (штрафстоянка)[TKBDSS618595]Московская область, Раменский городской округ, посёлок Дубовая Роща, Спортивная улица, 4/2</t>
+          <t>DUFRI[DUFRI]Москва, аэропорт Домодедово</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Московская область, Раменский городской округ, посёлок Дубовая Роща, Спортивная улица, 4/2</t>
+          <t>Москва, аэропорт Домодедово</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>14.05.2024</t>
+          <t>24.07.2019</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Парковка авто при ж/д вокзале Ростова н/ДОплата в паркомате на парковке</t>
+          <t>Leon Duty Free, магазин беспошлинной торговли[DutyFree]Таиланд, аэропорт Краби, 133 Village M.5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Оплата в паркомате на парковке</t>
+          <t>Таиланд, аэропорт Краби, 133 Village M.5</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>01.05.2024</t>
+          <t>25.01.2019</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>парковка ТЦ Mari[PR_GK-KOMPANI MENEDZHM]Москва, Поречная улица, 10</t>
+          <t>Duty Free аэропорт ИзмирИзмир, Dokuz Eylül Mh., 35425 Gaziemir</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Москва, Поречная улица, 10</t>
+          <t>Измир, Dokuz Eylül Mh., 35425 Gaziemir</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>28.04.2024</t>
+          <t>11.01.2019</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Парковка гостиничного комплекса "Имеретинский"посёлок городского типа Сириус, Голубая улица, 1Б</t>
+          <t>DutyFree аэропорт КазаниКазань, ул. Аэропорт, 1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>посёлок городского типа Сириус, Голубая улица, 1Б</t>
+          <t>Казань, ул. Аэропорт, 1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26.04.2024</t>
+          <t>11.01.2019</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Парковка в аэропорту Домодедово[DME PARKING P3K4]Домодедово</t>
+          <t>Дьюти в аэропорту Тбилиси[DUTY FREE, Tbilisi]Грузия, Тбилиси, аэропорт Тбилиси</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Домодедово</t>
+          <t>Грузия, Тбилиси, аэропорт Тбилиси</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>26.04.2024</t>
+          <t>07.12.2018</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Горпарковки Екатеринбург пополнение ЛС[MBU GSAP]приложение Горпарковки</t>
+          <t>Магазин Вайтнауэр-Филипп, philipp-kld.ru[WEITNAUER-PHILIPP]Калининград, ул. Гайдара, 116</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>приложение Горпарковки</t>
+          <t>Калининград, ул. Гайдара, 116</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>22.04.2024</t>
+          <t>09.09.2018</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ГСК "Металлург-2", стоянка 28[GSK STROITEL-2]Магнитогорск, ул. Северный переход, гараж "Металлург 2"</t>
+          <t>Duty Free URART GUMRUKSUZ[\ANTALYA HAVALIMANI 2 DIS HATLAR TERMINALI\URART GUMRUKSUZ MAGA]Турция, Анталья, Аэропорт Антальи</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Магнитогорск, ул. Северный переход, гараж "Металлург 2"</t>
+          <t>Турция, Анталья, Аэропорт Антальи</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21.04.2024</t>
+          <t>07.08.2018</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Парковка ТРЦ Ривьера[TRC RIVERA]Москва, Автозаводская улица, 18</t>
+          <t>Sweet Dreams (duty free)[SWEET DREAMS BY HEINEM]Гонконг, аэропорт, терминал 1, зона вылета</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Москва, Автозаводская улица, 18</t>
+          <t>Гонконг, аэропорт, терминал 1, зона вылета</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>07.04.2024</t>
+          <t>05.08.2018</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Многоуровневый паркинг терминал B аэропорт ШереметьевоМосква, Аэропорт Шереметьево</t>
+          <t>Дьюти Фри DUTY FREE в Аэропорте[URART GUMRUKSUZ MAG]Турция, Анталья, Анталья</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Москва, Аэропорт Шереметьево</t>
+          <t>Турция, Анталья, Анталья</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>06.04.2024</t>
+          <t>13.07.2018</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Платная парковка возле ипподрома "Акбузат"[PARKOVKA]Уфа, ул. Менделеева, 170</t>
+          <t>Duty Free МАПП Торфяновка; Mapp Torfyanovka, LegkoЛенинградская область, Выборгский район, МАПП Торфяновка</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Уфа, ул. Менделеева, 170</t>
+          <t>Ленинградская область, Выборгский район, МАПП Торфяновка</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>26.03.2024</t>
+          <t>28.06.2018</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>спецстоянка СПб, Южное шоссе 37Санкт Петербург, южное шоссе, 37</t>
+          <t>Duty Free в коридоре между шенгенской и нешенгенской зоной[WDFG HELSINKI]Финляндия, Вантаа, международный аэропорт Хельсинки Вантаа</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Санкт Петербург, южное шоссе, 37</t>
+          <t>Финляндия, Вантаа, международный аэропорт Хельсинки Вантаа</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>26.03.2024</t>
+          <t>11.04.2018</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>7523</v>
+        <v>5309</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Парковка спортивного клуба "ГАБО" (gabo.su)[PARKOVKA]Московская обл., Рогачёвское шоссе, дер.Бабаиха</t>
+          <t>Hudson[HUDSON]Санкт-Петербург, Аэропорт Пулково</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Московская обл., Рогачёвское шоссе, дер.Бабаиха</t>
+          <t>Санкт-Петербург, Аэропорт Пулково</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>25.03.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Парковка у рынка Сенной со стороны ул. Б. Горная[IP POPOV]Саратов, Большая Горная улица</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Саратов, Большая Горная улица</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>07.02.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Оплата парковки в БегишевоРеспублика Татарстан, Нижнекамский район, Нижнекамск, Бегишево, 1, возле здания аэропорта</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Республика Татарстан, Нижнекамский район, Нижнекамск, Бегишево, 1, возле здания аэропорта</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>01.01.2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>территория завода Кристалл, оплата Парковки в автомате у выезда[KRAJS KRISTALL]Москва, Самокатная улица, 4с8</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Москва, Самокатная улица, 4с8</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>01.12.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Remdiski[IP ZARETSKIY A.A.]Санкт Петербург, Ленинский просп., 55, корп. 4, Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Санкт Петербург, Ленинский просп., 55, корп. 4, Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>15.11.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Парковка под эстакадой у ВДНХ[Parkovka n-5 vdnh]Москва, эстакада ВДНХ</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Москва, эстакада ВДНХ</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>25.10.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Паркомат ТЦ Щука[STROJTEKH MOSCOW RU]Москва, Щукинская ул. , 42</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Москва, Щукинская ул. , 42</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>04.10.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>RUCHARGE[RUCHARGE]приложение ЭЗС РусГидро</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>приложение ЭЗС РусГидро</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>03.09.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Парковка на Центральном рынкеСочи, Московская улица, 22Г</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Сочи, Московская улица, 22Г</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>02.09.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Паркинг "Автоковчек"[AVTOKOVCHEG]Челябинск, ул. Чичерина, 42в</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Челябинск, ул. Чичерина, 42в</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>27.08.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>оплата проезда на территорию Лужников в стационарном автомате[AO LUZHNIKI]Москва, ул. Лужники</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Москва, ул. Лужники</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>12.08.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Парковка у ТДК Гостиный двор[IP KLIMOVA R.D.]Уфа, Верхнеторговая площадь, 1</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Уфа, Верхнеторговая площадь, 1</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>12.08.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Ростовское парковочное пространство[OOO RPP]приложение RuParking</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>приложение RuParking</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>01.08.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Park&amp;Flyhttps://parkandfly.ru/</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>https://parkandfly.ru/</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>15.06.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Парковка Афимолл[PARKOVKA MOSCOW]Москва, Афимолл</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Москва, Афимолл</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>11.05.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Оплата парковки ТРЦ ГалереяСанкт-Петербург, Лиговский проспект, 30</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург, Лиговский проспект, 30</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>08.05.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Штрафстоянка на Портовой[Gor Spets Stoyanka]Калининград, ул. Портовая, 20в</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Калининград, ул. Портовая, 20в</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>30.03.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Парковка Кольцово (бронирование на сайте)[KOLCOVO PARKING]https://it.svx.aero/</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>https://it.svx.aero/</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>23.03.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Парковка ЦДМ (Центральный Детский Магазин)[Parking CDM]Москва, Театральный проезд, 5с1</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Москва, Театральный проезд, 5с1</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>03.02.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Парковка Парка "Патриот" (военно-патриотический парк культуры и отдыха Вооружённых Сил Российской Федерации)[Park Odincovskij]Кубинка, Московская обл., Минское ш., 55км</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Кубинка, Московская обл., Минское ш., 55км</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>06.01.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Оплата парковки (терминал у шлагбаума на выезде)[OOO Gazopribor]Санкт-Петербург, Московский проспект, 22к6</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург, Московский проспект, 22к6</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>26.11.2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Оплата парковки на permparking.ru[PERMPARKING]permparking.ru</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>permparking.ru</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>16.09.2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Манжерок, канатная дорога, оплата в автомате[VEN _KASSY AVTOMAT]Республика Алтай, Майминский район, Всесезонный горнолыжный комплекс Манжерок, автомат в торце кассы</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Республика Алтай, Майминский район, Всесезонный горнолыжный комплекс Манжерок, автомат в торце кассы</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>04.09.2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Парковка у Волковинского карьера Лыткарино[SP_PARKOVKA LYTKARINO]Лыткарино, Лыткаринское шоссе</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Лыткарино, Лыткаринское шоссе</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>07.08.2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Тюменские парковки[tmn-parking.ru]https://tmn-parking.ru</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>https://tmn-parking.ru</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>02.08.2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Парковки НН[Parking-NN]приложение Парковки НН</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>приложение Парковки НН</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>29.07.2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Парковка у измайловского парка[Izmajlovkij pkio]Москва, Московский проспект</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Москва, Московский проспект</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>19.06.2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>РАНХиГС Парковка возле 1-ого корпуса[RANKHIGS PARKOVKA]Москва, проспект улица Вернадского 81с1</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Москва, проспект улица Вернадского 81с1</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>28.05.2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ООО "УК ПАРК"[UK PARK 78 YAKHROMA]Яхрома, Парковка</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Яхрома, Парковка</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>17.03.2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Парковка (аэропорт Краснодар "Пашковский")[PARKOVKA AO MAKR.]Краснодар, ул. Бершанской 355</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Краснодар, ул. Бершанской 355</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>27.01.2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Паркинг БЦ "Гранд Сетунь Плаза"[BC GRAND SETUN PLAZA]Москва, ул. Горбунова , дом 2</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Москва, ул. Горбунова , дом 2</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>21.01.2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>парковка ТЦ "Фестиваль"[TC FESTIVAL]Москва, ул. Мичуринский пр-т, Олимпийская Деревня, 3, корп.1, ТЦ "Фестиваль"</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Москва, ул. Мичуринский пр-т, Олимпийская Деревня, 3, корп.1, ТЦ "Фестиваль"</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>27.12.2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Терминал. ШтрафстоянкаСамара, ул. Мечникова, 52</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Самара, ул. Мечникова, 52</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>22.12.2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>7523</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Охта парк – касса парка развлеченийЛенинградская область, Всеволожский район, Бугровское сельское поселение, деревня Мистолово, ул. Людмилы Кедриной, 1А</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Ленинградская область, Всеволожский район, Бугровское сельское поселение, деревня Мистолово, ул. Людмилы Кедриной, 1А</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>12.12.2021</t>
+          <t>30.10.2017</t>
         </is>
       </c>
     </row>
